--- a/src/analysis_examples/circadb/results_lomb/cosinor_10491136_tnik_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10491136_tnik_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21907651568469938, 0.36695143530843116]</t>
+          <t>[0.21862114268290275, 0.36740680831022776]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>5.09538227166928e-08</v>
+        <v>5.629278088115086e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>5.09538227166928e-08</v>
+        <v>5.629278088115086e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6415264277600778</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.38994743648161556]</t>
+          <t>[-0.9056843686024632, -0.37736848691769254]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.94103630940068e-05</v>
+        <v>5.320611165426925e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>2.94103630940068e-05</v>
+        <v>5.320611165426925e-05</v>
       </c>
       <c r="S2" t="n">
         <v>0.5275064433772989</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.48881274527747565, 0.5662001414771222]</t>
+          <t>[0.48883590093642115, 0.5661769858181767]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>2.443303303303367</v>
       </c>
       <c r="X2" t="n">
-        <v>1.485145145145182</v>
+        <v>1.437237237237274</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.401461461461551</v>
+        <v>3.449369369369459</v>
       </c>
     </row>
   </sheetData>
